--- a/excel_templates/ШАБЛОН Эксель Футбол Тотал.xlsx
+++ b/excel_templates/ШАБЛОН Эксель Футбол Тотал.xlsx
@@ -8,11 +8,11 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Статистика" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="false" name="HTML_1" vbProcedure="false">Sheet1!$C$1:$BS$4</definedName>
-    <definedName function="false" hidden="false" name="HTML_all" vbProcedure="false">Sheet1!$C$1:$BS$5</definedName>
+    <definedName function="false" hidden="false" name="HTML_1" vbProcedure="false">Статистика!$C$1:$BS$4</definedName>
+    <definedName function="false" hidden="false" name="HTML_all" vbProcedure="false">Статистика!$C$1:$BS$5</definedName>
     <definedName function="false" hidden="false" name="HTML_tables" vbProcedure="false">#REF!</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -38,7 +38,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">beforerow(% for row in rows %)</t>
+          <t xml:space="preserve">beforerow{% for row in rows %}</t>
         </r>
       </text>
     </comment>
@@ -50,7 +50,7 @@
             <rFont val="Arial"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">beforerow(% endfor %)</t>
+          <t xml:space="preserve">beforerow{% endfor %}</t>
         </r>
       </text>
     </comment>
@@ -459,7 +459,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -500,12 +500,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -634,7 +628,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -699,59 +693,63 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -940,14 +938,53 @@
   </sheetPr>
   <dimension ref="B1:BT1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AZ1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BS5" activeCellId="0" sqref="BS5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="1:2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="3.79"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="71" min="3" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="4.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="5.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="4.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="4.22"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="8" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="11.17"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="18" min="13" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="4.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="15.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="21" style="1" width="3.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="23" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="25" style="1" width="3.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="3.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="2.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="3.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="5.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="4.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="35" style="1" width="3.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="6.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="38" style="1" width="7.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="41" style="1" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="9.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="45" style="1" width="7.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="47" style="1" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="49" style="1" width="7.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="52" min="51" style="1" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="54" min="53" style="1" width="7.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="55" style="1" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="57" style="1" width="7.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="59" style="1" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="1" width="7.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="1" width="4.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="1" width="4.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="1" width="4.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="65" min="65" style="1" width="4.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="71" min="66" style="1" width="3.79"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="73" style="1" width="11.53"/>
   </cols>
   <sheetData>
@@ -1473,217 +1510,217 @@
       <c r="BS3" s="15" t="n">
         <v>122</v>
       </c>
-      <c r="BT3" s="0"/>
+      <c r="BT3" s="16"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="19" t="s">
+      <c r="I4" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="K4" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="M4" s="21" t="s">
+      <c r="M4" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="N4" s="21" t="s">
+      <c r="N4" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="O4" s="22" t="s">
+      <c r="O4" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="P4" s="22" t="s">
+      <c r="P4" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="Q4" s="21" t="s">
+      <c r="Q4" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="R4" s="21" t="s">
+      <c r="R4" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="S4" s="23" t="s">
+      <c r="S4" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="T4" s="21" t="s">
+      <c r="T4" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="U4" s="22" t="s">
+      <c r="U4" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="V4" s="22" t="s">
+      <c r="V4" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="W4" s="21" t="s">
+      <c r="W4" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="X4" s="21" t="s">
+      <c r="X4" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="Y4" s="22" t="s">
+      <c r="Y4" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="Z4" s="22" t="s">
+      <c r="Z4" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="AA4" s="21" t="s">
+      <c r="AA4" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="AB4" s="21" t="s">
+      <c r="AB4" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="AC4" s="24" t="s">
+      <c r="AC4" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="AD4" s="24" t="s">
+      <c r="AD4" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="AE4" s="24" t="s">
+      <c r="AE4" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="AF4" s="25" t="s">
+      <c r="AF4" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="AG4" s="25" t="s">
+      <c r="AG4" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="AH4" s="25" t="s">
+      <c r="AH4" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="AI4" s="24" t="s">
+      <c r="AI4" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="AJ4" s="24" t="s">
+      <c r="AJ4" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="AK4" s="25" t="s">
+      <c r="AK4" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="AL4" s="26" t="s">
+      <c r="AL4" s="27" t="s">
         <v>96</v>
       </c>
-      <c r="AM4" s="26" t="s">
+      <c r="AM4" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="AN4" s="26" t="s">
+      <c r="AN4" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="AO4" s="27" t="s">
+      <c r="AO4" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="AP4" s="27" t="s">
+      <c r="AP4" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="AQ4" s="27" t="s">
+      <c r="AQ4" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="AR4" s="25" t="s">
+      <c r="AR4" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="AS4" s="19" t="s">
+      <c r="AS4" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="AT4" s="19" t="s">
+      <c r="AT4" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="AU4" s="27" t="s">
+      <c r="AU4" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="AV4" s="27" t="s">
+      <c r="AV4" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="AW4" s="26" t="s">
+      <c r="AW4" s="27" t="s">
         <v>107</v>
       </c>
-      <c r="AX4" s="26" t="s">
+      <c r="AX4" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="AY4" s="27" t="s">
+      <c r="AY4" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="AZ4" s="27" t="s">
+      <c r="AZ4" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="BA4" s="19" t="s">
+      <c r="BA4" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="BB4" s="19" t="s">
+      <c r="BB4" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="BC4" s="27" t="s">
+      <c r="BC4" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="BD4" s="27" t="s">
+      <c r="BD4" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="BE4" s="26" t="s">
+      <c r="BE4" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="BF4" s="26" t="s">
+      <c r="BF4" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="BG4" s="27" t="s">
+      <c r="BG4" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="BH4" s="27" t="s">
+      <c r="BH4" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="BI4" s="25" t="s">
+      <c r="BI4" s="26" t="s">
         <v>119</v>
       </c>
-      <c r="BJ4" s="28" t="s">
+      <c r="BJ4" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="BK4" s="28" t="s">
+      <c r="BK4" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="BL4" s="28" t="s">
+      <c r="BL4" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="BM4" s="28" t="s">
+      <c r="BM4" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="BN4" s="29" t="s">
+      <c r="BN4" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="BO4" s="29" t="s">
+      <c r="BO4" s="30" t="s">
         <v>125</v>
       </c>
-      <c r="BP4" s="28" t="s">
+      <c r="BP4" s="29" t="s">
         <v>126</v>
       </c>
-      <c r="BQ4" s="28" t="s">
+      <c r="BQ4" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="BR4" s="29" t="s">
+      <c r="BR4" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="BS4" s="29" t="s">
+      <c r="BS4" s="30" t="s">
         <v>129</v>
       </c>
     </row>

--- a/excel_templates/ШАБЛОН Эксель Футбол Тотал.xlsx
+++ b/excel_templates/ШАБЛОН Эксель Футбол Тотал.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="132">
   <si>
     <t xml:space="preserve">№</t>
   </si>
@@ -241,6 +241,9 @@
     <t xml:space="preserve">НЕТ</t>
   </si>
   <si>
+    <t xml:space="preserve">Ссылка</t>
+  </si>
+  <si>
     <t xml:space="preserve">{{ row.get('index') }}</t>
   </si>
   <si>
@@ -449,6 +452,9 @@
   </si>
   <si>
     <t xml:space="preserve">{{ row.get('122') }}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{ row.get(‘url’) }}</t>
   </si>
 </sst>
 </file>
@@ -693,7 +699,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -938,10 +944,10 @@
   </sheetPr>
   <dimension ref="B1:BT1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AW1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="1:2"/>
+      <selection pane="topLeft" activeCell="AW1" activeCellId="0" sqref="AW1"/>
+      <selection pane="bottomLeft" activeCell="BT4" activeCellId="0" sqref="BT4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -964,13 +970,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="2.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="3.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="5.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="4.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="11.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="4.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="11.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="35" style="1" width="3.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="6.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="38" style="1" width="7.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="41" style="1" width="6.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="9.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="9.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="46" min="45" style="1" width="7.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="48" min="47" style="1" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="50" min="49" style="1" width="7.55"/>
@@ -979,7 +985,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="55" style="1" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="57" style="1" width="7.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="59" style="1" width="6.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="1" width="7.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="1" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="1" width="4.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="1" width="4.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="1" width="4.59"/>
@@ -1510,218 +1516,223 @@
       <c r="BS3" s="15" t="n">
         <v>122</v>
       </c>
-      <c r="BT3" s="16"/>
+      <c r="BT3" s="16" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N4" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O4" s="23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P4" s="23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q4" s="22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R4" s="22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S4" s="24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T4" s="22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U4" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V4" s="23" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="W4" s="22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="X4" s="22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y4" s="23" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z4" s="23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AA4" s="22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AB4" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AC4" s="25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AD4" s="25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AE4" s="25" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AF4" s="26" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG4" s="26" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH4" s="26" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI4" s="25" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AJ4" s="25" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK4" s="26" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AL4" s="27" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AM4" s="27" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AN4" s="27" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AO4" s="28" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AP4" s="28" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AQ4" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AR4" s="26" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AS4" s="20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AT4" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AU4" s="28" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AV4" s="28" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AW4" s="27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AX4" s="27" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AY4" s="28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AZ4" s="28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="BA4" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="BB4" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="BC4" s="28" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="BD4" s="28" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="BE4" s="27" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BF4" s="27" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="BG4" s="28" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="BH4" s="28" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="BI4" s="26" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="BJ4" s="29" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="BK4" s="29" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="BL4" s="29" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="BM4" s="29" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="BN4" s="30" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="BO4" s="30" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="BP4" s="29" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="BQ4" s="29" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="BR4" s="30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="BS4" s="30" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="BT4" s="16" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/excel_templates/ШАБЛОН Эксель Футбол Тотал.xlsx
+++ b/excel_templates/ШАБЛОН Эксель Футбол Тотал.xlsx
@@ -454,7 +454,7 @@
     <t xml:space="preserve">{{ row.get('122') }}</t>
   </si>
   <si>
-    <t xml:space="preserve">{{ row.get(‘url’) }}</t>
+    <t xml:space="preserve">{{ row.get('url') }}</t>
   </si>
 </sst>
 </file>
@@ -947,7 +947,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AW1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="AW1" activeCellId="0" sqref="AW1"/>
-      <selection pane="bottomLeft" activeCell="BT4" activeCellId="0" sqref="BT4"/>
+      <selection pane="bottomLeft" activeCell="BT5" activeCellId="0" sqref="BT5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -985,7 +985,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="55" style="1" width="6.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="57" style="1" width="7.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="59" style="1" width="6.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="61" min="61" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="62" min="62" style="1" width="4.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="63" min="63" style="1" width="4.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="64" style="1" width="4.59"/>

--- a/excel_templates/ШАБЛОН Эксель Футбол Тотал.xlsx
+++ b/excel_templates/ШАБЛОН Эксель Футбол Тотал.xlsx
@@ -157,6 +157,9 @@
     <t xml:space="preserve">Ком. заб. во 2 тайме</t>
   </si>
   <si>
+    <t xml:space="preserve">Ссылка</t>
+  </si>
+  <si>
     <t xml:space="preserve">Чис</t>
   </si>
   <si>
@@ -239,9 +242,6 @@
   </si>
   <si>
     <t xml:space="preserve">НЕТ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ссылка</t>
   </si>
   <si>
     <t xml:space="preserve">{{ row.get('index') }}</t>
@@ -634,7 +634,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -691,72 +691,76 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -947,7 +951,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AW1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="AW1" activeCellId="0" sqref="AW1"/>
-      <selection pane="bottomLeft" activeCell="BT5" activeCellId="0" sqref="BT5"/>
+      <selection pane="bottomLeft" activeCell="BT1" activeCellId="0" sqref="BT1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1129,17 +1133,20 @@
         <v>31</v>
       </c>
       <c r="BS1" s="13"/>
+      <c r="BT1" s="14" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -1147,378 +1154,377 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P2" s="8"/>
       <c r="Q2" s="6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R2" s="6"/>
       <c r="S2" s="7"/>
       <c r="T2" s="6"/>
       <c r="U2" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="Z2" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="X2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z2" s="8" t="s">
+      <c r="AA2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="AA2" s="6" t="s">
-        <v>39</v>
-      </c>
       <c r="AB2" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AD2" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AE2" s="9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AF2" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AG2" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AH2" s="10"/>
       <c r="AI2" s="9" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AK2" s="10"/>
       <c r="AL2" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AM2" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AN2" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="AO2" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="AP2" s="14" t="s">
+      <c r="AO2" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="AQ2" s="14" t="s">
+      <c r="AP2" s="15" t="s">
         <v>53</v>
+      </c>
+      <c r="AQ2" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="AR2" s="10"/>
       <c r="AS2" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="AU2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AV2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW2" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="AV2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AW2" s="11" t="s">
-        <v>54</v>
-      </c>
       <c r="AX2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY2" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AZ2" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="AY2" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="AZ2" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="BA2" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BB2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="BC2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="BC2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="BD2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE2" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="BD2" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="BE2" s="11" t="s">
-        <v>56</v>
-      </c>
       <c r="BF2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="BG2" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH2" s="14" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="BG2" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH2" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="BI2" s="10"/>
       <c r="BJ2" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BK2" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BL2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="BM2" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="BN2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="BO2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="BP2" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="BQ2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="BR2" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="BS2" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="BT2" s="14"/>
+    </row>
+    <row r="3" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" s="16" t="n">
+        <v>3</v>
+      </c>
+      <c r="F3" s="16" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" s="16" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" s="16" t="n">
+        <v>6</v>
+      </c>
+      <c r="I3" s="16" t="n">
+        <v>7</v>
+      </c>
+      <c r="J3" s="16" t="n">
+        <v>8</v>
+      </c>
+      <c r="K3" s="16" t="n">
+        <v>9</v>
+      </c>
+      <c r="L3" s="16" t="n">
+        <v>10</v>
+      </c>
+      <c r="M3" s="16" t="n">
+        <v>11</v>
+      </c>
+      <c r="N3" s="16" t="n">
+        <v>12</v>
+      </c>
+      <c r="O3" s="16" t="n">
+        <v>13</v>
+      </c>
+      <c r="P3" s="16" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="16" t="n">
+        <v>15</v>
+      </c>
+      <c r="R3" s="16" t="n">
+        <v>16</v>
+      </c>
+      <c r="S3" s="7"/>
+      <c r="T3" s="16" t="n">
+        <v>76</v>
+      </c>
+      <c r="U3" s="16" t="n">
+        <v>77</v>
+      </c>
+      <c r="V3" s="16" t="n">
+        <v>78</v>
+      </c>
+      <c r="W3" s="16" t="n">
+        <v>79</v>
+      </c>
+      <c r="X3" s="16" t="n">
+        <v>80</v>
+      </c>
+      <c r="Y3" s="16" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z3" s="16" t="n">
+        <v>82</v>
+      </c>
+      <c r="AA3" s="16" t="n">
+        <v>83</v>
+      </c>
+      <c r="AB3" s="16" t="n">
+        <v>84</v>
+      </c>
+      <c r="AC3" s="16" t="n">
+        <v>32</v>
+      </c>
+      <c r="AD3" s="16" t="n">
+        <v>33</v>
+      </c>
+      <c r="AE3" s="16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AF3" s="16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG3" s="16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH3" s="16" t="n">
+        <v>30</v>
+      </c>
+      <c r="AI3" s="16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AJ3" s="16" t="n">
         <v>39</v>
       </c>
-      <c r="BM2" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="BN2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="BO2" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="BP2" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="BQ2" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="BR2" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="BS2" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" s="15" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="15" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" s="15" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" s="15" t="n">
-        <v>3</v>
-      </c>
-      <c r="F3" s="15" t="n">
-        <v>4</v>
-      </c>
-      <c r="G3" s="15" t="n">
-        <v>5</v>
-      </c>
-      <c r="H3" s="15" t="n">
-        <v>6</v>
-      </c>
-      <c r="I3" s="15" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" s="15" t="n">
-        <v>8</v>
-      </c>
-      <c r="K3" s="15" t="n">
-        <v>9</v>
-      </c>
-      <c r="L3" s="15" t="n">
-        <v>10</v>
-      </c>
-      <c r="M3" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="N3" s="15" t="n">
-        <v>12</v>
-      </c>
-      <c r="O3" s="15" t="n">
-        <v>13</v>
-      </c>
-      <c r="P3" s="15" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q3" s="15" t="n">
-        <v>15</v>
-      </c>
-      <c r="R3" s="15" t="n">
-        <v>16</v>
-      </c>
-      <c r="S3" s="7"/>
-      <c r="T3" s="15" t="n">
-        <v>76</v>
-      </c>
-      <c r="U3" s="15" t="n">
-        <v>77</v>
-      </c>
-      <c r="V3" s="15" t="n">
-        <v>78</v>
-      </c>
-      <c r="W3" s="15" t="n">
-        <v>79</v>
-      </c>
-      <c r="X3" s="15" t="n">
-        <v>80</v>
-      </c>
-      <c r="Y3" s="15" t="n">
-        <v>81</v>
-      </c>
-      <c r="Z3" s="15" t="n">
-        <v>82</v>
-      </c>
-      <c r="AA3" s="15" t="n">
-        <v>83</v>
-      </c>
-      <c r="AB3" s="15" t="n">
-        <v>84</v>
-      </c>
-      <c r="AC3" s="15" t="n">
-        <v>32</v>
-      </c>
-      <c r="AD3" s="15" t="n">
-        <v>33</v>
-      </c>
-      <c r="AE3" s="15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AF3" s="15" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG3" s="15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AH3" s="15" t="n">
-        <v>30</v>
-      </c>
-      <c r="AI3" s="15" t="n">
-        <v>38</v>
-      </c>
-      <c r="AJ3" s="15" t="n">
-        <v>39</v>
-      </c>
-      <c r="AK3" s="15" t="n">
+      <c r="AK3" s="16" t="n">
         <v>127</v>
       </c>
-      <c r="AL3" s="15" t="n">
+      <c r="AL3" s="16" t="n">
         <v>91</v>
       </c>
-      <c r="AM3" s="15" t="n">
+      <c r="AM3" s="16" t="n">
         <v>92</v>
       </c>
-      <c r="AN3" s="15" t="n">
+      <c r="AN3" s="16" t="n">
         <v>93</v>
       </c>
-      <c r="AO3" s="15" t="n">
+      <c r="AO3" s="16" t="n">
         <v>94</v>
       </c>
-      <c r="AP3" s="15" t="n">
+      <c r="AP3" s="16" t="n">
         <v>95</v>
       </c>
-      <c r="AQ3" s="15" t="n">
+      <c r="AQ3" s="16" t="n">
         <v>96</v>
       </c>
-      <c r="AR3" s="15" t="n">
+      <c r="AR3" s="16" t="n">
         <v>129</v>
       </c>
-      <c r="AS3" s="15" t="n">
+      <c r="AS3" s="16" t="n">
         <v>97</v>
       </c>
-      <c r="AT3" s="15" t="n">
+      <c r="AT3" s="16" t="n">
         <v>98</v>
       </c>
-      <c r="AU3" s="15" t="n">
+      <c r="AU3" s="16" t="n">
         <v>99</v>
       </c>
-      <c r="AV3" s="15" t="n">
+      <c r="AV3" s="16" t="n">
         <v>100</v>
       </c>
-      <c r="AW3" s="15" t="n">
+      <c r="AW3" s="16" t="n">
         <v>101</v>
       </c>
-      <c r="AX3" s="15" t="n">
+      <c r="AX3" s="16" t="n">
         <v>102</v>
       </c>
-      <c r="AY3" s="15" t="n">
+      <c r="AY3" s="16" t="n">
         <v>103</v>
       </c>
-      <c r="AZ3" s="15" t="n">
+      <c r="AZ3" s="16" t="n">
         <v>104</v>
       </c>
-      <c r="BA3" s="15" t="n">
+      <c r="BA3" s="16" t="n">
         <v>105</v>
       </c>
-      <c r="BB3" s="15" t="n">
+      <c r="BB3" s="16" t="n">
         <v>106</v>
       </c>
-      <c r="BC3" s="15" t="n">
+      <c r="BC3" s="16" t="n">
         <v>107</v>
       </c>
-      <c r="BD3" s="15" t="n">
+      <c r="BD3" s="16" t="n">
         <v>108</v>
       </c>
-      <c r="BE3" s="15" t="n">
+      <c r="BE3" s="16" t="n">
         <v>109</v>
       </c>
-      <c r="BF3" s="15" t="n">
+      <c r="BF3" s="16" t="n">
         <v>110</v>
       </c>
-      <c r="BG3" s="15" t="n">
+      <c r="BG3" s="16" t="n">
         <v>111</v>
       </c>
-      <c r="BH3" s="15" t="n">
+      <c r="BH3" s="16" t="n">
         <v>112</v>
       </c>
-      <c r="BI3" s="15" t="n">
+      <c r="BI3" s="16" t="n">
         <v>128</v>
       </c>
-      <c r="BJ3" s="15" t="n">
+      <c r="BJ3" s="16" t="n">
         <v>113</v>
       </c>
-      <c r="BK3" s="15" t="n">
+      <c r="BK3" s="16" t="n">
         <v>114</v>
       </c>
-      <c r="BL3" s="15" t="n">
+      <c r="BL3" s="16" t="n">
         <v>115</v>
       </c>
-      <c r="BM3" s="15" t="n">
+      <c r="BM3" s="16" t="n">
         <v>116</v>
       </c>
-      <c r="BN3" s="15" t="n">
+      <c r="BN3" s="16" t="n">
         <v>117</v>
       </c>
-      <c r="BO3" s="15" t="n">
+      <c r="BO3" s="16" t="n">
         <v>118</v>
       </c>
-      <c r="BP3" s="15" t="n">
+      <c r="BP3" s="16" t="n">
         <v>119</v>
       </c>
-      <c r="BQ3" s="15" t="n">
+      <c r="BQ3" s="16" t="n">
         <v>120</v>
       </c>
-      <c r="BR3" s="15" t="n">
+      <c r="BR3" s="16" t="n">
         <v>121</v>
       </c>
-      <c r="BS3" s="15" t="n">
+      <c r="BS3" s="16" t="n">
         <v>122</v>
       </c>
-      <c r="BT3" s="16" t="s">
-        <v>60</v>
-      </c>
+      <c r="BT3" s="14"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
@@ -1731,7 +1737,7 @@
       <c r="BS4" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="BT4" s="16" t="s">
+      <c r="BT4" s="31" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1785,7 +1791,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="35">
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="F1:F2"/>
@@ -1818,6 +1824,7 @@
     <mergeCell ref="BN1:BO1"/>
     <mergeCell ref="BP1:BQ1"/>
     <mergeCell ref="BR1:BS1"/>
+    <mergeCell ref="BT1:BT3"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:R2"/>
   </mergeCells>
